--- a/Finflux Automation Excels/Client/2578-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-ADD-VAR-INST-PERIODIC-Newcreateloan1.xlsx
+++ b/Finflux Automation Excels/Client/2578-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-ADD-VAR-INST-PERIODIC-Newcreateloan1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Repayment schedule" sheetId="1" r:id="rId3"/>
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
     <sheet name="Edit Repayment Schedule" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -230,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +248,13 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -326,11 +334,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -361,6 +367,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,98 +734,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>42005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>42005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>42005</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>42064</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -823,13 +845,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -853,81 +875,81 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>5000</v>
       </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
         <v>5000</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <v>2365.96</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>183.22</v>
       </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
         <v>183.22</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
         <v>0</v>
       </c>
     </row>
@@ -940,415 +962,416 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="21" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="13.85546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23">
         <v>42005</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="24">
         <v>5000</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10">
-        <v>0</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22">
+        <v>0</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="22">
         <v>31</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="23">
         <v>42036</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22">
         <v>769.23</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="25">
         <v>4230.7700000000004</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="22">
         <v>50</v>
       </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10">
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
         <v>819.23</v>
       </c>
-      <c r="L3" s="10">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10">
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22">
         <v>819.23</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="22">
         <v>14</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="23">
         <v>42050</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22">
         <v>833.33</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="25">
         <v>3397.44</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="22">
         <v>25</v>
       </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="I4" s="22">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
         <v>858.33</v>
       </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10">
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22">
         <v>858.33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="22">
         <v>14</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="23">
         <v>42064</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22">
         <v>763.4</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="25">
         <v>2634.04</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="22">
         <v>25</v>
       </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
         <v>788.4</v>
       </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10">
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="22">
         <v>788.4</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="22">
         <v>31</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="23">
         <v>42095</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22">
         <v>763.4</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="25">
         <v>1870.64</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="22">
         <v>50</v>
       </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
         <v>813.4</v>
       </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10">
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
         <v>813.4</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="22">
         <v>30</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="23">
         <v>42125</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22">
         <v>763.4</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="25">
         <v>1107.24</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="22">
         <v>18.71</v>
       </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
         <v>782.11</v>
       </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
         <v>782.11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="22">
         <v>31</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="23">
         <v>42156</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22">
         <v>763.4</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="22">
         <v>343.84</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="22">
         <v>11.07</v>
       </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
         <v>774.47</v>
       </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
         <v>774.47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="22">
         <v>30</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="23">
         <v>42186</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>343.84</v>
       </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
         <v>3.44</v>
       </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
         <v>347.28</v>
       </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
         <v>347.28</v>
       </c>
     </row>
@@ -1368,17 +1391,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1414,34 +1437,34 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>27</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>42005</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>5000</v>
       </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
         <v>5000</v>
       </c>
     </row>
@@ -1465,118 +1488,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>42050</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>833.33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>42005</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>42005</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>